--- a/conflictsFile.xlsx
+++ b/conflictsFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dockerProjects\aquality-tracking-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dockerProjects\aquality-tracking-api-actual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F9273F-C435-4160-A092-9AAC8FC56351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC0B5D-19DC-4300-8C85-2AA1115E336C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>One</t>
+  </si>
+  <si>
+    <t>Val</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/conflictsFile.xlsx
+++ b/conflictsFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dockerProjects\aquality-tracking-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dockerProjects\aquality-tracking-api-sse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F9273F-C435-4160-A092-9AAC8FC56351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8075B159-FA35-4CC6-912C-D26B025AF473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>One</t>
+  </si>
+  <si>
+    <t>SSE</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
